--- a/StudyPlan.xlsx
+++ b/StudyPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\StudyPlan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_local\docs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A01B2-A0C8-4344-810B-729553B71A47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED09F5C-45B5-40D6-831D-EDFD3578D895}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3960" activeTab="4" xr2:uid="{BC858B40-631D-4357-AFE7-82AB9D3E9E39}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790" activeTab="4" xr2:uid="{BC858B40-631D-4357-AFE7-82AB9D3E9E39}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanFinal" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="121">
   <si>
     <t>Topic</t>
   </si>
@@ -391,6 +391,9 @@
   <si>
     <t>https://github.com/bollwarm/DataStructuresAlgorithms
 https://takeuforward.org/interviews/strivers-sde-sheet-top-coding-interview-problems/</t>
+  </si>
+  <si>
+    <t>Linked List (Theory)</t>
   </si>
 </sst>
 </file>
@@ -634,8 +637,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,9 +650,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2159,7 +2162,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36">
+      <c r="A2" s="37">
         <v>44898</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2173,7 +2176,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="12" t="s">
         <v>75</v>
       </c>
@@ -2183,7 +2186,7 @@
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="36">
+      <c r="A4" s="37">
         <v>44899</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -2197,7 +2200,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="12" t="s">
         <v>76</v>
       </c>
@@ -2207,7 +2210,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="36">
+      <c r="A6" s="37">
         <v>44900</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2219,7 +2222,7 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="13" t="s">
         <v>91</v>
       </c>
@@ -2229,7 +2232,7 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="13" t="s">
         <v>77</v>
       </c>
@@ -2239,7 +2242,7 @@
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36">
+      <c r="A9" s="37">
         <v>44901</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -2251,7 +2254,7 @@
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="13" t="s">
         <v>77</v>
       </c>
@@ -2261,7 +2264,7 @@
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="13" t="s">
         <v>92</v>
       </c>
@@ -2271,7 +2274,7 @@
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="36">
+      <c r="A12" s="37">
         <v>44902</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -2283,7 +2286,7 @@
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="13" t="s">
         <v>77</v>
       </c>
@@ -2293,7 +2296,7 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="13" t="s">
         <v>93</v>
       </c>
@@ -2303,7 +2306,7 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36">
+      <c r="A15" s="37">
         <v>44903</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2315,7 +2318,7 @@
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
         <v>77</v>
       </c>
@@ -2325,7 +2328,7 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="17" t="s">
         <v>94</v>
       </c>
@@ -2335,7 +2338,7 @@
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35">
+      <c r="A18" s="40">
         <v>44904</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2347,7 +2350,7 @@
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="35"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="13" t="s">
         <v>77</v>
       </c>
@@ -2357,7 +2360,7 @@
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="35">
+      <c r="A20" s="40">
         <v>44905</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -2369,7 +2372,7 @@
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="13" t="s">
         <v>77</v>
       </c>
@@ -2379,7 +2382,7 @@
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="35">
+      <c r="A22" s="40">
         <v>44906</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -2391,7 +2394,7 @@
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="35"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="13" t="s">
         <v>95</v>
       </c>
@@ -2401,7 +2404,7 @@
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="35">
+      <c r="A24" s="40">
         <v>44907</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2413,7 +2416,7 @@
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="35"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="13" t="s">
         <v>97</v>
       </c>
@@ -2423,7 +2426,7 @@
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35">
+      <c r="A26" s="40">
         <v>44908</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -2435,7 +2438,7 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="35"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="13" t="s">
         <v>77</v>
       </c>
@@ -2445,7 +2448,7 @@
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="35">
+      <c r="A28" s="40">
         <v>44909</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -2457,7 +2460,7 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="35"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="13" t="s">
         <v>82</v>
       </c>
@@ -2467,7 +2470,7 @@
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="35">
+      <c r="A30" s="40">
         <v>44910</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -2479,7 +2482,7 @@
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="35"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="13" t="s">
         <v>99</v>
       </c>
@@ -2491,12 +2494,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -2504,6 +2501,12 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{30D1510A-55EC-491E-9BCD-68B39975F6E3}">
@@ -2517,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC42064C-180E-4661-969D-48161BF2F882}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2564,7 +2567,7 @@
       <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="35">
         <v>45042</v>
       </c>
       <c r="G2" t="s">
@@ -2578,7 +2581,7 @@
       <c r="B3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="35">
         <v>45043</v>
       </c>
       <c r="G3" t="s">
@@ -2592,11 +2595,25 @@
       <c r="B4" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="35">
         <v>45077</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="36" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="35">
+        <v>45082</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/StudyPlan.xlsx
+++ b/StudyPlan.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_local\docs\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED09F5C-45B5-40D6-831D-EDFD3578D895}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790" activeTab="4" xr2:uid="{BC858B40-631D-4357-AFE7-82AB9D3E9E39}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PlanFinal" sheetId="6" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="DailyPlanBang" sheetId="5" r:id="rId4"/>
     <sheet name="DSA" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -399,7 +393,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,6 +636,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -649,9 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,14 +954,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E691CB-A3CA-4338-98F7-88F9D56D22C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -1524,7 +1518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942ACBB8-5946-4444-B7DA-3FFE08DB4A0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2094,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396354E3-408F-4042-A2A2-B64DB48448DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -2132,7 +2126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B5E05E-4A97-4B67-899D-6EA60C763663}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -2162,7 +2156,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37">
+      <c r="A2" s="38">
         <v>44898</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2176,7 +2170,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="12" t="s">
         <v>75</v>
       </c>
@@ -2186,7 +2180,7 @@
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="37">
+      <c r="A4" s="38">
         <v>44899</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -2200,7 +2194,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="12" t="s">
         <v>76</v>
       </c>
@@ -2210,7 +2204,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="37">
+      <c r="A6" s="38">
         <v>44900</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2222,7 +2216,7 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="13" t="s">
         <v>91</v>
       </c>
@@ -2232,7 +2226,7 @@
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="13" t="s">
         <v>77</v>
       </c>
@@ -2242,7 +2236,7 @@
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="37">
+      <c r="A9" s="38">
         <v>44901</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -2254,7 +2248,7 @@
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="13" t="s">
         <v>77</v>
       </c>
@@ -2264,7 +2258,7 @@
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="13" t="s">
         <v>92</v>
       </c>
@@ -2274,7 +2268,7 @@
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="37">
+      <c r="A12" s="38">
         <v>44902</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -2286,7 +2280,7 @@
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="13" t="s">
         <v>77</v>
       </c>
@@ -2296,7 +2290,7 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="13" t="s">
         <v>93</v>
       </c>
@@ -2306,7 +2300,7 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="37">
+      <c r="A15" s="38">
         <v>44903</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2318,7 +2312,7 @@
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="13" t="s">
         <v>77</v>
       </c>
@@ -2328,7 +2322,7 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="17" t="s">
         <v>94</v>
       </c>
@@ -2338,7 +2332,7 @@
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="40">
+      <c r="A18" s="37">
         <v>44904</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2350,7 +2344,7 @@
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="40"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="13" t="s">
         <v>77</v>
       </c>
@@ -2360,7 +2354,7 @@
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="40">
+      <c r="A20" s="37">
         <v>44905</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -2372,7 +2366,7 @@
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="13" t="s">
         <v>77</v>
       </c>
@@ -2382,7 +2376,7 @@
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="40">
+      <c r="A22" s="37">
         <v>44906</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -2394,7 +2388,7 @@
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="40"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="13" t="s">
         <v>95</v>
       </c>
@@ -2404,7 +2398,7 @@
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="40">
+      <c r="A24" s="37">
         <v>44907</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2416,7 +2410,7 @@
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="40"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="13" t="s">
         <v>97</v>
       </c>
@@ -2426,7 +2420,7 @@
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="40">
+      <c r="A26" s="37">
         <v>44908</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -2438,7 +2432,7 @@
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="40"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="13" t="s">
         <v>77</v>
       </c>
@@ -2448,7 +2442,7 @@
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="40">
+      <c r="A28" s="37">
         <v>44909</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -2460,7 +2454,7 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="40"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="13" t="s">
         <v>82</v>
       </c>
@@ -2470,7 +2464,7 @@
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="40">
+      <c r="A30" s="37">
         <v>44910</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -2482,7 +2476,7 @@
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="40"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="13" t="s">
         <v>99</v>
       </c>
@@ -2494,6 +2488,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
@@ -2501,15 +2501,9 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{30D1510A-55EC-491E-9BCD-68B39975F6E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"Done, In-progress, Closed, Open"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2519,11 +2513,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC42064C-180E-4661-969D-48161BF2F882}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2610,7 +2604,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="35">
-        <v>45082</v>
+        <v>45112</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -2618,7 +2612,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="https://github.com/bollwarm/DataStructuresAlgorithms" xr:uid="{A0CB5D6C-CA8D-479E-BB07-611D5CCA4798}"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://github.com/bollwarm/DataStructuresAlgorithms"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
